--- a/sources/case/addMember2.xlsx
+++ b/sources/case/addMember2.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Params" sheetId="1" r:id="rId2"/>
     <sheet name="Expectations" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -132,13 +132,6 @@
     <t>${organization_2.uuid}</t>
   </si>
   <si>
-    <t>${position_1.uuid}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${position_2.uuid}</t>
-  </si>
-  <si>
     <t>$csv{data.Tenant.microfastup.tenant_id}</t>
   </si>
   <si>
@@ -197,12 +190,6 @@
     <t>${organization_2.name}</t>
   </si>
   <si>
-    <t>${position_1.name}</t>
-  </si>
-  <si>
-    <t>${position_2.name}</t>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -217,6 +204,18 @@
   </si>
   <si>
     <t>user_17</t>
+  </si>
+  <si>
+    <t>$csv{data.position.position_1.uuid}</t>
+  </si>
+  <si>
+    <t>$csv{data.position.position_1.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.position.position_2.name}</t>
+  </si>
+  <si>
+    <t>$csv{data.position.position_2.uuid}</t>
   </si>
 </sst>
 </file>
@@ -630,7 +629,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -647,7 +646,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,9 +654,9 @@
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -671,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -685,7 +684,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>24</v>
@@ -694,21 +693,21 @@
         <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -717,21 +716,21 @@
         <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
@@ -740,21 +739,21 @@
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>24</v>
@@ -763,16 +762,16 @@
         <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -787,19 +786,19 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -834,28 +833,28 @@
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>12</v>
@@ -863,28 +862,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>12</v>
@@ -892,28 +891,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>12</v>
@@ -921,28 +920,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>12</v>
